--- a/ferry/Staten Island Ferry Passenger Counts - by Month/2020/SIF Monthly Ridership_2020_11.xlsx
+++ b/ferry/Staten Island Ferry Passenger Counts - by Month/2020/SIF Monthly Ridership_2020_11.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Ridership Statistics\Staten Island Ferry\2020\Monthly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y_Ma2\Desktop\GITHUB\td-trends\ferry\Staten Island Ferry Passenger Counts - by Month\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BC950B-9520-41B9-859D-57757AFE12D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="1"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TOTAL" sheetId="1" r:id="rId1"/>
+    <sheet name="TOTALS" sheetId="1" r:id="rId1"/>
     <sheet name="Weekday-Weekend" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -40,9 +49,6 @@
   </si>
   <si>
     <t>Combined Total</t>
-  </si>
-  <si>
-    <t>Total:</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,11 +80,14 @@
   <si>
     <t>Average Ridership/Weekday:</t>
   </si>
+  <si>
+    <t>TOTALS:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -189,7 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,6 +245,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -516,689 +526,688 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B4:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="10.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="13">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="13">
         <v>44136</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="2:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="str">
-        <f>CHOOSE(WEEKDAY(C4),"Sunday","Monday","Tuesday","Wednesday","Thursday","Friday","Saturday")</f>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="str">
+        <f>CHOOSE(WEEKDAY(C6),"Sunday","Monday","Tuesday","Wednesday","Thursday","Friday","Saturday")</f>
         <v>Sunday</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C6" s="10">
         <v>44136</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D6" s="11">
         <v>6434</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E6" s="11">
         <v>5705</v>
       </c>
-      <c r="F4" s="12">
-        <f>SUM(D4:E4)</f>
+      <c r="F6" s="12">
+        <f>SUM(D6:E6)</f>
         <v>12139</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="str">
-        <f t="shared" ref="B5:B33" si="0">CHOOSE(WEEKDAY(C5),"Sunday","Monday","Tuesday","Wednesday","Thursday","Friday","Saturday")</f>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="str">
+        <f t="shared" ref="B7:B35" si="0">CHOOSE(WEEKDAY(C7),"Sunday","Monday","Tuesday","Wednesday","Thursday","Friday","Saturday")</f>
         <v>Monday</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C7" s="10">
         <v>44137</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D7" s="11">
         <v>10931</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E7" s="11">
         <v>10692</v>
       </c>
-      <c r="F5" s="12">
-        <f t="shared" ref="F5:F33" si="1">SUM(D5:E5)</f>
+      <c r="F7" s="12">
+        <f t="shared" ref="F7:F35" si="1">SUM(D7:E7)</f>
         <v>21623</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="str">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C8" s="10">
         <v>44138</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D8" s="11">
         <v>9987</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E8" s="11">
         <v>9969</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F8" s="12">
         <f t="shared" si="1"/>
         <v>19956</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="str">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C9" s="10">
         <v>44139</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D9" s="11">
         <v>10762</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E9" s="11">
         <v>10572</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F9" s="12">
         <f t="shared" si="1"/>
         <v>21334</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="str">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C10" s="10">
         <v>44140</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D10" s="11">
         <v>11576</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E10" s="11">
         <v>11452</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F10" s="12">
         <f t="shared" si="1"/>
         <v>23028</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="str">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C11" s="10">
         <v>44141</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D11" s="11">
         <v>11751</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E11" s="11">
         <v>12048</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F11" s="12">
         <f t="shared" si="1"/>
         <v>23799</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="str">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C12" s="10">
         <v>44142</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D12" s="11">
         <v>10195</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E12" s="11">
         <v>9895</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F12" s="12">
         <f t="shared" si="1"/>
         <v>20090</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="str">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C13" s="10">
         <v>44143</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D13" s="11">
         <v>8948</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E13" s="11">
         <v>8516</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F13" s="12">
         <f t="shared" si="1"/>
         <v>17464</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="str">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C14" s="10">
         <v>44144</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D14" s="11">
         <v>11140</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E14" s="11">
         <v>11064</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F14" s="12">
         <f t="shared" si="1"/>
         <v>22204</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="str">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C15" s="10">
         <v>44145</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D15" s="11">
         <v>12106</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E15" s="11">
         <v>11688</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F15" s="12">
         <f t="shared" si="1"/>
         <v>23794</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="str">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C16" s="10">
         <v>44146</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D16" s="11">
         <v>9713</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E16" s="11">
         <v>9671</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F16" s="12">
         <f t="shared" si="1"/>
         <v>19384</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="str">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C17" s="10">
         <v>44147</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D17" s="11">
         <v>10540</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E17" s="11">
         <v>10474</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F17" s="12">
         <f t="shared" si="1"/>
         <v>21014</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="str">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C18" s="10">
         <v>44148</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D18" s="11">
         <v>11079</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E18" s="11">
         <v>10877</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F18" s="12">
         <f t="shared" si="1"/>
         <v>21956</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="str">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C19" s="10">
         <v>44149</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D19" s="11">
         <v>9177</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E19" s="11">
         <v>8933</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F19" s="12">
         <f t="shared" si="1"/>
         <v>18110</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="str">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C20" s="10">
         <v>44150</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D20" s="11">
         <v>6343</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E20" s="11">
         <v>6123</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F20" s="12">
         <f t="shared" si="1"/>
         <v>12466</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="str">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C21" s="10">
         <v>44151</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D21" s="11">
         <v>11003</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E21" s="11">
         <v>10799</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F21" s="12">
         <f t="shared" si="1"/>
         <v>21802</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="str">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C22" s="10">
         <v>44152</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D22" s="11">
         <v>10946</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E22" s="11">
         <v>10642</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F22" s="12">
         <f t="shared" si="1"/>
         <v>21588</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="str">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C23" s="10">
         <v>44153</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D23" s="11">
         <v>10807</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E23" s="11">
         <v>10605</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F23" s="12">
         <f t="shared" si="1"/>
         <v>21412</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="str">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C24" s="10">
         <v>44154</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D24" s="11">
         <v>10620</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E24" s="11">
         <v>10466</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F24" s="12">
         <f t="shared" si="1"/>
         <v>21086</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="str">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C25" s="10">
         <v>44155</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D25" s="11">
         <v>11352</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E25" s="11">
         <v>11411</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F25" s="12">
         <f t="shared" si="1"/>
         <v>22763</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="str">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C26" s="10">
         <v>44156</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D26" s="11">
         <v>8532</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E26" s="11">
         <v>8365</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F26" s="12">
         <f t="shared" si="1"/>
         <v>16897</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="str">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C27" s="10">
         <v>44157</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D27" s="11">
         <v>6475</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E27" s="11">
         <v>6072</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F27" s="12">
         <f t="shared" si="1"/>
         <v>12547</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="9" t="str">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C28" s="10">
         <v>44158</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D28" s="11">
         <v>10211</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E28" s="11">
         <v>10296</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F28" s="12">
         <f t="shared" si="1"/>
         <v>20507</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="9" t="str">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C29" s="10">
         <v>44159</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D29" s="11">
         <v>10940</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E29" s="11">
         <v>10899</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F29" s="12">
         <f t="shared" si="1"/>
         <v>21839</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="9" t="str">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C30" s="10">
         <v>44160</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D30" s="11">
         <v>11174</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E30" s="11">
         <v>10743</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F30" s="12">
         <f t="shared" si="1"/>
         <v>21917</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="9" t="str">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C31" s="10">
         <v>44161</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D31" s="11">
         <v>6044</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E31" s="11">
         <v>6392</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F31" s="12">
         <f t="shared" si="1"/>
         <v>12436</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="str">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C32" s="10">
         <v>44162</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D32" s="11">
         <v>9506</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E32" s="11">
         <v>9585</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F32" s="12">
         <f t="shared" si="1"/>
         <v>19091</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="9" t="str">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C33" s="10">
         <v>44163</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D33" s="11">
         <v>8322</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E33" s="11">
         <v>8408</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F33" s="12">
         <f t="shared" si="1"/>
         <v>16730</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="9" t="str">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C34" s="10">
         <v>44164</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D34" s="11">
         <v>6924</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E34" s="11">
         <v>6910</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F34" s="12">
         <f t="shared" si="1"/>
         <v>13834</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="9" t="str">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C35" s="10">
         <v>44165</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D35" s="11">
         <v>9395</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E35" s="11">
         <v>9119</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F35" s="12">
         <f t="shared" si="1"/>
         <v>18514</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="12">
-        <f>SUM(D4:D33)</f>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="12">
+        <f>SUM(D6:D35)</f>
         <v>292933</v>
       </c>
-      <c r="E34" s="12">
-        <f>SUM(E4:E33)</f>
+      <c r="E36" s="12">
+        <f>SUM(E6:E35)</f>
         <v>288391</v>
       </c>
-      <c r="F34" s="12">
-        <f>SUM(F4:F33)</f>
+      <c r="F36" s="12">
+        <f>SUM(F6:F35)</f>
         <v>581324</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="12">
-        <f>F34</f>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="12">
+        <f>F36</f>
         <v>581324</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B36:E36"/>
+  <mergeCells count="2">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B38:E38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F4:F33" formulaRange="1"/>
+    <ignoredError sqref="F6:F35" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Y45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1221,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X3">
         <v>9585</v>
@@ -1221,7 +1230,7 @@
         <v>9119</v>
       </c>
     </row>
-    <row r="4" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="str">
         <f t="shared" ref="B4:B24" si="0">CHOOSE(WEEKDAY(C4),"Sunday","Monday","Tuesday","Wednesday","Thursday","Friday","Saturday")</f>
         <v>Monday</v>
@@ -1240,7 +1249,7 @@
         <v>21623</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
@@ -1265,7 +1274,7 @@
         <v>9395</v>
       </c>
     </row>
-    <row r="6" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
@@ -1284,7 +1293,7 @@
         <v>21334</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
@@ -1303,7 +1312,7 @@
         <v>23028</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
@@ -1322,7 +1331,7 @@
         <v>23799</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
@@ -1341,7 +1350,7 @@
         <v>22204</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
@@ -1360,7 +1369,7 @@
         <v>23794</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
@@ -1379,7 +1388,7 @@
         <v>19384</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
@@ -1398,7 +1407,7 @@
         <v>21014</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
@@ -1417,7 +1426,7 @@
         <v>21956</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
@@ -1436,7 +1445,7 @@
         <v>21802</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
@@ -1455,7 +1464,7 @@
         <v>21588</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
@@ -1474,7 +1483,7 @@
         <v>21412</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
@@ -1493,7 +1502,7 @@
         <v>21086</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
@@ -1512,7 +1521,7 @@
         <v>22763</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
@@ -1531,7 +1540,7 @@
         <v>20507</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
@@ -1550,7 +1559,7 @@
         <v>21839</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
@@ -1569,7 +1578,7 @@
         <v>21917</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
@@ -1588,7 +1597,7 @@
         <v>12436</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
@@ -1607,7 +1616,7 @@
         <v>19091</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
@@ -1626,9 +1635,9 @@
         <v>18514</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="5">
@@ -1644,9 +1653,9 @@
         <v>441047</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -1656,9 +1665,9 @@
         <v>441047</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -1668,16 +1677,16 @@
         <v>21002.238095238095</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>0</v>
       </c>
@@ -1691,10 +1700,10 @@
         <v>3</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="9" t="str">
         <f t="shared" ref="B32:B40" si="3">CHOOSE(WEEKDAY(C32),"Sunday","Monday","Tuesday","Wednesday","Thursday","Friday","Saturday")</f>
         <v>Sunday</v>
@@ -1713,7 +1722,7 @@
         <v>12139</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Saturday</v>
@@ -1732,7 +1741,7 @@
         <v>20090</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Sunday</v>
@@ -1751,7 +1760,7 @@
         <v>17464</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Saturday</v>
@@ -1770,7 +1779,7 @@
         <v>18110</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Sunday</v>
@@ -1789,7 +1798,7 @@
         <v>12466</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Saturday</v>
@@ -1808,7 +1817,7 @@
         <v>16897</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Sunday</v>
@@ -1827,7 +1836,7 @@
         <v>12547</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Saturday</v>
@@ -1846,7 +1855,7 @@
         <v>16730</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Sunday</v>
@@ -1865,9 +1874,9 @@
         <v>13834</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="6">
@@ -1883,9 +1892,9 @@
         <v>140277</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -1895,9 +1904,9 @@
         <v>140277</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -1907,9 +1916,9 @@
         <v>17956.75</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
@@ -1939,6 +1948,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056AE8379B00F7343AA85C9CCF3ABC79C" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ed5a08c4ea4bafe7608c7a0bbf74949">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="670d3029-f9df-404e-98fc-7004dcdec636" xmlns:ns3="5f7ac3ca-9ce0-489a-bc70-1e3f2f642f01" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f6b6dc1f77d7f192bee01dd38b44bce" ns2:_="" ns3:_="">
     <xsd:import namespace="670d3029-f9df-404e-98fc-7004dcdec636"/>
@@ -2117,29 +2141,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF613974-2AB9-46B1-998D-30D0A1A99C38}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF939ED7-B8CB-47EF-A8D6-73E55F964907}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86C72C19-DBF0-462C-B9B5-1229438E5FC0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86C72C19-DBF0-462C-B9B5-1229438E5FC0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF939ED7-B8CB-47EF-A8D6-73E55F964907}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF613974-2AB9-46B1-998D-30D0A1A99C38}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="670d3029-f9df-404e-98fc-7004dcdec636"/>
+    <ds:schemaRef ds:uri="5f7ac3ca-9ce0-489a-bc70-1e3f2f642f01"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>